--- a/WAZIR_AUGUST_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_AUGUST_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gatway\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST_2024" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">AUGUST_2024!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -404,7 +404,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,7 +709,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,16 +944,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
         <f>SUM(D14:F14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="14">
         <f>(G14/6)*100</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1013,19 +1013,19 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1064,16 +1064,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1088,16 +1088,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1117,11 +1117,11 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,16 +1136,16 @@
         <v>3</v>
       </c>
       <c r="E22" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1184,16 +1184,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">

--- a/WAZIR_AUGUST_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_AUGUST_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IPS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerSystemProtection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AUGUST_2024!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AUGUST_2024!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -260,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,12 +283,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +374,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,10 +727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,9 +915,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
@@ -965,19 +984,19 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
         <f t="shared" ref="G15:G24" si="0">SUM(D15:F15)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" ref="H15:H24" si="1">(G15/6)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -989,19 +1008,19 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,19 +1056,19 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1112,16 +1131,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,19 +1176,19 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1196,32 +1215,53 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="18" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C25:H26"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A13"/>
